--- a/sample_questions.xlsx
+++ b/sample_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirthickraj/Projects/huawei_hackathon/inferencePipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D52E20-B4FF-2349-A136-058BAED32251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3C381-2DDF-1A42-95D9-734ADEE28B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="38400" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>difficulty</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>kerala</t>
+  </si>
+  <si>
+    <t>What country is called peral of africa</t>
+  </si>
+  <si>
+    <t>uagnda</t>
+  </si>
+  <si>
+    <t>Who won world war 2</t>
+  </si>
+  <si>
+    <t>Allies</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>what is Profitability Index</t>
+  </si>
+  <si>
+    <t>Benefit to cost ratio including discount</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -480,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -625,6 +649,57 @@
       </c>
       <c r="E8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
